--- a/cfs_6_0.55.xlsx
+++ b/cfs_6_0.55.xlsx
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.641</v>
+        <v>0.655</v>
       </c>
       <c r="C2" t="n">
         <v>0.7</v>
@@ -527,7 +527,7 @@
         <v>0.531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.667</v>
+        <v>0.804</v>
       </c>
       <c r="H2" t="n">
         <v>0.407</v>
@@ -573,7 +573,7 @@
         <v>0.624</v>
       </c>
       <c r="G3" t="n">
-        <v>0.697</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0.375</v>
@@ -613,7 +613,7 @@
         <v>0.479</v>
       </c>
       <c r="E4" t="n">
-        <v>0.639</v>
+        <v>0.601</v>
       </c>
       <c r="F4" t="n">
         <v>0.58</v>
@@ -634,7 +634,7 @@
         <v>0.486</v>
       </c>
       <c r="L4" t="n">
-        <v>0.513</v>
+        <v>0.457</v>
       </c>
       <c r="M4" t="n">
         <v>3.939393939393939</v>
@@ -659,7 +659,7 @@
         <v>0.484</v>
       </c>
       <c r="E5" t="n">
-        <v>0.639</v>
+        <v>0.628</v>
       </c>
       <c r="F5" t="n">
         <v>0.627</v>
@@ -680,7 +680,7 @@
         <v>0.417</v>
       </c>
       <c r="L5" t="n">
-        <v>0.513</v>
+        <v>0.429</v>
       </c>
       <c r="M5" t="n">
         <v>7.583333333333333</v>
@@ -714,13 +714,13 @@
         <v>0.723</v>
       </c>
       <c r="H6" t="n">
-        <v>0.368</v>
+        <v>0.404</v>
       </c>
       <c r="I6" t="n">
         <v>0.589</v>
       </c>
       <c r="J6" t="n">
-        <v>0.339</v>
+        <v>0.446</v>
       </c>
       <c r="K6" t="n">
         <v>0.496</v>
@@ -772,7 +772,7 @@
         <v>0.481</v>
       </c>
       <c r="L7" t="n">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="M7" t="n">
         <v>3.452830188679245</v>
@@ -812,7 +812,7 @@
         <v>0.579</v>
       </c>
       <c r="J8" t="n">
-        <v>0.305</v>
+        <v>0.431</v>
       </c>
       <c r="K8" t="n">
         <v>0.465</v>
@@ -849,7 +849,7 @@
         <v>0.601</v>
       </c>
       <c r="G9" t="n">
-        <v>0.658</v>
+        <v>0.744</v>
       </c>
       <c r="H9" t="n">
         <v>0.395</v>
@@ -883,13 +883,13 @@
         <v>0.595</v>
       </c>
       <c r="C10" t="n">
-        <v>0.718</v>
+        <v>0.673</v>
       </c>
       <c r="D10" t="n">
         <v>0.48</v>
       </c>
       <c r="E10" t="n">
-        <v>0.632</v>
+        <v>0.595</v>
       </c>
       <c r="F10" t="n">
         <v>0.604</v>
@@ -929,7 +929,7 @@
         <v>0.6</v>
       </c>
       <c r="C11" t="n">
-        <v>0.724</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="D11" t="n">
         <v>0.466</v>
@@ -956,7 +956,7 @@
         <v>0.505</v>
       </c>
       <c r="L11" t="n">
-        <v>0.51</v>
+        <v>0.443</v>
       </c>
       <c r="M11" t="n">
         <v>3.4</v>
@@ -1002,7 +1002,7 @@
         <v>0.438</v>
       </c>
       <c r="L12" t="n">
-        <v>0.495</v>
+        <v>0.438</v>
       </c>
       <c r="M12" t="n">
         <v>2.254545454545454</v>
@@ -1033,7 +1033,7 @@
         <v>0.613</v>
       </c>
       <c r="G13" t="n">
-        <v>0.627</v>
+        <v>0.759</v>
       </c>
       <c r="H13" t="n">
         <v>0.375</v>
@@ -1079,10 +1079,10 @@
         <v>0.556</v>
       </c>
       <c r="G14" t="n">
-        <v>0.636</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0.378</v>
+        <v>0.374</v>
       </c>
       <c r="I14" t="n">
         <v>0.579</v>
@@ -1134,7 +1134,7 @@
         <v>0.547</v>
       </c>
       <c r="J15" t="n">
-        <v>0.284</v>
+        <v>0.33</v>
       </c>
       <c r="K15" t="n">
         <v>0.467</v>
@@ -1171,7 +1171,7 @@
         <v>0.598</v>
       </c>
       <c r="G16" t="n">
-        <v>0.657</v>
+        <v>0.742</v>
       </c>
       <c r="H16" t="n">
         <v>0.35</v>
@@ -1183,7 +1183,7 @@
         <v>0.337</v>
       </c>
       <c r="K16" t="n">
-        <v>0.468</v>
+        <v>0.459</v>
       </c>
       <c r="L16" t="n">
         <v>0.43</v>
@@ -1232,7 +1232,7 @@
         <v>0.441</v>
       </c>
       <c r="L17" t="n">
-        <v>0.509</v>
+        <v>0.428</v>
       </c>
       <c r="M17" t="n">
         <v>5.810344827586207</v>
@@ -1263,7 +1263,7 @@
         <v>0.596</v>
       </c>
       <c r="G18" t="n">
-        <v>0.712</v>
+        <v>0.76</v>
       </c>
       <c r="H18" t="n">
         <v>0.36</v>
@@ -1300,7 +1300,7 @@
         <v>0.592</v>
       </c>
       <c r="D19" t="n">
-        <v>0.391</v>
+        <v>0.426</v>
       </c>
       <c r="E19" t="n">
         <v>0.542</v>
@@ -1321,7 +1321,7 @@
         <v>0.456</v>
       </c>
       <c r="K19" t="n">
-        <v>0.595</v>
+        <v>0.497</v>
       </c>
       <c r="L19" t="n">
         <v>0.482</v>
@@ -1364,7 +1364,7 @@
         <v>0.523</v>
       </c>
       <c r="J20" t="n">
-        <v>0.283</v>
+        <v>0.334</v>
       </c>
       <c r="K20" t="n">
         <v>0.444</v>
@@ -1416,7 +1416,7 @@
         <v>0.373</v>
       </c>
       <c r="L21" t="n">
-        <v>0.454</v>
+        <v>0.385</v>
       </c>
       <c r="M21" t="n">
         <v>7.21875</v>
@@ -1462,10 +1462,10 @@
         <v>0.482</v>
       </c>
       <c r="L22" t="n">
-        <v>0.47</v>
+        <v>0.425</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4.907407407407407</v>
       </c>
       <c r="N22" t="n">
         <v>6.611111111111111</v>
@@ -1481,13 +1481,13 @@
         <v>0.638</v>
       </c>
       <c r="C23" t="n">
-        <v>0.731</v>
+        <v>0.671</v>
       </c>
       <c r="D23" t="n">
         <v>0.44</v>
       </c>
       <c r="E23" t="n">
-        <v>0.642</v>
+        <v>0.588</v>
       </c>
       <c r="F23" t="n">
         <v>0.5669999999999999</v>
@@ -1539,7 +1539,7 @@
         <v>0.577</v>
       </c>
       <c r="G24" t="n">
-        <v>0.675</v>
+        <v>0.704</v>
       </c>
       <c r="H24" t="n">
         <v>0.361</v>
@@ -1554,7 +1554,7 @@
         <v>0.453</v>
       </c>
       <c r="L24" t="n">
-        <v>0.46</v>
+        <v>0.434</v>
       </c>
       <c r="M24" t="n">
         <v>3.877551020408163</v>
@@ -1585,7 +1585,7 @@
         <v>0.501</v>
       </c>
       <c r="G25" t="n">
-        <v>0.675</v>
+        <v>0.754</v>
       </c>
       <c r="H25" t="n">
         <v>0.36</v>
@@ -1625,16 +1625,16 @@
         <v>0.452</v>
       </c>
       <c r="E26" t="n">
-        <v>0.612</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.601</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="G26" t="n">
         <v>0.676</v>
       </c>
       <c r="H26" t="n">
-        <v>0.385</v>
+        <v>0.381</v>
       </c>
       <c r="I26" t="n">
         <v>0.548</v>
@@ -1671,7 +1671,7 @@
         <v>0.466</v>
       </c>
       <c r="E27" t="n">
-        <v>0.639</v>
+        <v>0.578</v>
       </c>
       <c r="F27" t="n">
         <v>0.571</v>
@@ -1692,7 +1692,7 @@
         <v>0.439</v>
       </c>
       <c r="L27" t="n">
-        <v>0.421</v>
+        <v>0.387</v>
       </c>
       <c r="M27" t="n">
         <v>2.666666666666667</v>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.584</v>
       </c>
       <c r="C28" t="n">
         <v>0.631</v>
@@ -1723,7 +1723,7 @@
         <v>0.571</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.633</v>
       </c>
       <c r="H28" t="n">
         <v>0.39</v>
@@ -1757,7 +1757,7 @@
         <v>0.61</v>
       </c>
       <c r="C29" t="n">
-        <v>0.656</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="D29" t="n">
         <v>0.457</v>
@@ -1769,7 +1769,7 @@
         <v>0.5590000000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>0.655</v>
+        <v>0.722</v>
       </c>
       <c r="H29" t="n">
         <v>0.356</v>
@@ -1803,7 +1803,7 @@
         <v>0.546</v>
       </c>
       <c r="C30" t="n">
-        <v>0.704</v>
+        <v>0.671</v>
       </c>
       <c r="D30" t="n">
         <v>0.424</v>
@@ -1830,7 +1830,7 @@
         <v>0.463</v>
       </c>
       <c r="L30" t="n">
-        <v>0.495</v>
+        <v>0.461</v>
       </c>
       <c r="M30" t="n">
         <v>3.714285714285714</v>
@@ -1870,7 +1870,7 @@
         <v>0.534</v>
       </c>
       <c r="J31" t="n">
-        <v>0.343</v>
+        <v>0.407</v>
       </c>
       <c r="K31" t="n">
         <v>0.434</v>
@@ -1910,13 +1910,13 @@
         <v>0.5570000000000001</v>
       </c>
       <c r="H32" t="n">
-        <v>0.41</v>
+        <v>0.463</v>
       </c>
       <c r="I32" t="n">
         <v>0.574</v>
       </c>
       <c r="J32" t="n">
-        <v>0.415</v>
+        <v>0.523</v>
       </c>
       <c r="K32" t="n">
         <v>0.499</v>
@@ -1941,13 +1941,13 @@
         <v>0.607</v>
       </c>
       <c r="C33" t="n">
-        <v>0.62</v>
+        <v>0.606</v>
       </c>
       <c r="D33" t="n">
         <v>0.487</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="F33" t="n">
         <v>0.517</v>
@@ -1965,7 +1965,7 @@
         <v>0.384</v>
       </c>
       <c r="K33" t="n">
-        <v>0.504</v>
+        <v>0.427</v>
       </c>
       <c r="L33" t="n">
         <v>0.451</v>
@@ -1999,7 +1999,7 @@
         <v>0.542</v>
       </c>
       <c r="G34" t="n">
-        <v>0.698</v>
+        <v>0.725</v>
       </c>
       <c r="H34" t="n">
         <v>0.343</v>
@@ -2014,7 +2014,7 @@
         <v>0.416</v>
       </c>
       <c r="L34" t="n">
-        <v>0.421</v>
+        <v>0.395</v>
       </c>
       <c r="M34" t="n">
         <v>1.641025641025641</v>
@@ -2039,7 +2039,7 @@
         <v>0.478</v>
       </c>
       <c r="E35" t="n">
-        <v>0.605</v>
+        <v>0.577</v>
       </c>
       <c r="F35" t="n">
         <v>0.5639999999999999</v>
@@ -2085,10 +2085,10 @@
         <v>0.478</v>
       </c>
       <c r="E36" t="n">
-        <v>0.627</v>
+        <v>0.59</v>
       </c>
       <c r="F36" t="n">
-        <v>0.556</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="G36" t="n">
         <v>0.711</v>
@@ -2140,10 +2140,10 @@
         <v>0.662</v>
       </c>
       <c r="H37" t="n">
-        <v>0.324</v>
+        <v>0.371</v>
       </c>
       <c r="I37" t="n">
-        <v>0.498</v>
+        <v>0.539</v>
       </c>
       <c r="J37" t="n">
         <v>0.351</v>
@@ -2186,7 +2186,7 @@
         <v>0.645</v>
       </c>
       <c r="H38" t="n">
-        <v>0.362</v>
+        <v>0.417</v>
       </c>
       <c r="I38" t="n">
         <v>0.577</v>
@@ -2195,7 +2195,7 @@
         <v>0.36</v>
       </c>
       <c r="K38" t="n">
-        <v>0.479</v>
+        <v>0.513</v>
       </c>
       <c r="L38" t="n">
         <v>0.442</v>
@@ -2223,10 +2223,10 @@
         <v>0.391</v>
       </c>
       <c r="E39" t="n">
-        <v>0.586</v>
+        <v>0.576</v>
       </c>
       <c r="F39" t="n">
-        <v>0.529</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="G39" t="n">
         <v>0.704</v>
@@ -2244,7 +2244,7 @@
         <v>0.475</v>
       </c>
       <c r="L39" t="n">
-        <v>0.442</v>
+        <v>0.422</v>
       </c>
       <c r="M39" t="n">
         <v>6.416666666666667</v>
@@ -2290,7 +2290,7 @@
         <v>0.438</v>
       </c>
       <c r="L40" t="n">
-        <v>0.459</v>
+        <v>0.42</v>
       </c>
       <c r="M40" t="n">
         <v>3.093023255813954</v>
@@ -2315,13 +2315,13 @@
         <v>0.483</v>
       </c>
       <c r="E41" t="n">
-        <v>0.603</v>
+        <v>0.579</v>
       </c>
       <c r="F41" t="n">
         <v>0.555</v>
       </c>
       <c r="G41" t="n">
-        <v>0.72</v>
+        <v>0.731</v>
       </c>
       <c r="H41" t="n">
         <v>0.335</v>
@@ -2355,7 +2355,7 @@
         <v>0.612</v>
       </c>
       <c r="C42" t="n">
-        <v>0.667</v>
+        <v>0.606</v>
       </c>
       <c r="D42" t="n">
         <v>0.451</v>
@@ -2370,7 +2370,7 @@
         <v>0.704</v>
       </c>
       <c r="H42" t="n">
-        <v>0.326</v>
+        <v>0.337</v>
       </c>
       <c r="I42" t="n">
         <v>0.539</v>
@@ -2413,7 +2413,7 @@
         <v>0.533</v>
       </c>
       <c r="G43" t="n">
-        <v>0.597</v>
+        <v>0.66</v>
       </c>
       <c r="H43" t="n">
         <v>0.373</v>
@@ -2459,7 +2459,7 @@
         <v>0.569</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.736</v>
       </c>
       <c r="H44" t="n">
         <v>0.367</v>
@@ -2505,7 +2505,7 @@
         <v>0.634</v>
       </c>
       <c r="G45" t="n">
-        <v>0.642</v>
+        <v>0.706</v>
       </c>
       <c r="H45" t="n">
         <v>0.372</v>
@@ -2539,7 +2539,7 @@
         <v>0.628</v>
       </c>
       <c r="C46" t="n">
-        <v>0.638</v>
+        <v>0.628</v>
       </c>
       <c r="D46" t="n">
         <v>0.439</v>
@@ -2560,7 +2560,7 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="J46" t="n">
-        <v>0.362</v>
+        <v>0.413</v>
       </c>
       <c r="K46" t="n">
         <v>0.44</v>
@@ -2588,7 +2588,7 @@
         <v>0.577</v>
       </c>
       <c r="D47" t="n">
-        <v>0.494</v>
+        <v>0.502</v>
       </c>
       <c r="E47" t="n">
         <v>0.551</v>
@@ -2612,7 +2612,7 @@
         <v>0.483</v>
       </c>
       <c r="L47" t="n">
-        <v>0.482</v>
+        <v>0.453</v>
       </c>
       <c r="M47" t="n">
         <v>1.342857142857143</v>
@@ -2643,7 +2643,7 @@
         <v>0.525</v>
       </c>
       <c r="G48" t="n">
-        <v>0.638</v>
+        <v>0.724</v>
       </c>
       <c r="H48" t="n">
         <v>0.372</v>
@@ -2658,7 +2658,7 @@
         <v>0.483</v>
       </c>
       <c r="L48" t="n">
-        <v>0.439</v>
+        <v>0.482</v>
       </c>
       <c r="M48" t="n">
         <v>1.125</v>
@@ -2683,7 +2683,7 @@
         <v>0.412</v>
       </c>
       <c r="E49" t="n">
-        <v>0.599</v>
+        <v>0.533</v>
       </c>
       <c r="F49" t="n">
         <v>0.535</v>
@@ -2692,7 +2692,7 @@
         <v>0.599</v>
       </c>
       <c r="H49" t="n">
-        <v>0.419</v>
+        <v>0.475</v>
       </c>
       <c r="I49" t="n">
         <v>0.602</v>
@@ -2738,7 +2738,7 @@
         <v>0.624</v>
       </c>
       <c r="H50" t="n">
-        <v>0.37</v>
+        <v>0.417</v>
       </c>
       <c r="I50" t="n">
         <v>0.592</v>
@@ -2747,10 +2747,10 @@
         <v>0.39</v>
       </c>
       <c r="K50" t="n">
-        <v>0.492</v>
+        <v>0.513</v>
       </c>
       <c r="L50" t="n">
-        <v>0.475</v>
+        <v>0.451</v>
       </c>
       <c r="M50" t="n">
         <v>1.466666666666667</v>
@@ -2781,10 +2781,10 @@
         <v>0.532</v>
       </c>
       <c r="G51" t="n">
-        <v>0.641</v>
+        <v>0.697</v>
       </c>
       <c r="H51" t="n">
-        <v>0.37</v>
+        <v>0.412</v>
       </c>
       <c r="I51" t="n">
         <v>0.538</v>
@@ -2793,7 +2793,7 @@
         <v>0.342</v>
       </c>
       <c r="K51" t="n">
-        <v>0.487</v>
+        <v>0.449</v>
       </c>
       <c r="L51" t="n">
         <v>0.432</v>
@@ -2830,7 +2830,7 @@
         <v>0.661</v>
       </c>
       <c r="H52" t="n">
-        <v>0.341</v>
+        <v>0.382</v>
       </c>
       <c r="I52" t="n">
         <v>0.528</v>
@@ -2839,7 +2839,7 @@
         <v>0.318</v>
       </c>
       <c r="K52" t="n">
-        <v>0.389</v>
+        <v>0.38</v>
       </c>
       <c r="L52" t="n">
         <v>0.432</v>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.529</v>
+        <v>0.589</v>
       </c>
       <c r="C53" t="n">
         <v>0.671</v>
@@ -2876,13 +2876,13 @@
         <v>0.709</v>
       </c>
       <c r="H53" t="n">
-        <v>0.315</v>
+        <v>0.336</v>
       </c>
       <c r="I53" t="n">
-        <v>0.533</v>
+        <v>0.541</v>
       </c>
       <c r="J53" t="n">
-        <v>0.313</v>
+        <v>0.343</v>
       </c>
       <c r="K53" t="n">
         <v>0.462</v>
@@ -2922,13 +2922,13 @@
         <v>0.669</v>
       </c>
       <c r="H54" t="n">
-        <v>0.368</v>
+        <v>0.363</v>
       </c>
       <c r="I54" t="n">
         <v>0.579</v>
       </c>
       <c r="J54" t="n">
-        <v>0.339</v>
+        <v>0.383</v>
       </c>
       <c r="K54" t="n">
         <v>0.453</v>
@@ -2953,7 +2953,7 @@
         <v>0.555</v>
       </c>
       <c r="C55" t="n">
-        <v>0.705</v>
+        <v>0.657</v>
       </c>
       <c r="D55" t="n">
         <v>0.453</v>
@@ -2968,7 +2968,7 @@
         <v>0.642</v>
       </c>
       <c r="H55" t="n">
-        <v>0.382</v>
+        <v>0.423</v>
       </c>
       <c r="I55" t="n">
         <v>0.538</v>
@@ -3011,10 +3011,10 @@
         <v>0.524</v>
       </c>
       <c r="G56" t="n">
-        <v>0.593</v>
+        <v>0.612</v>
       </c>
       <c r="H56" t="n">
-        <v>0.353</v>
+        <v>0.434</v>
       </c>
       <c r="I56" t="n">
         <v>0.537</v>
@@ -3057,7 +3057,7 @@
         <v>0.602</v>
       </c>
       <c r="G57" t="n">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0.367</v>
@@ -3100,10 +3100,10 @@
         <v>0.596</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.594</v>
       </c>
       <c r="G58" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.735</v>
       </c>
       <c r="H58" t="n">
         <v>0.37</v>
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.619</v>
       </c>
       <c r="C59" t="n">
         <v>0.648</v>
@@ -3161,7 +3161,7 @@
         <v>0.366</v>
       </c>
       <c r="K59" t="n">
-        <v>0.537</v>
+        <v>0.451</v>
       </c>
       <c r="L59" t="n">
         <v>0.446</v>
@@ -3186,7 +3186,7 @@
         <v>0.596</v>
       </c>
       <c r="D60" t="n">
-        <v>0.494</v>
+        <v>0.485</v>
       </c>
       <c r="E60" t="n">
         <v>0.5679999999999999</v>
@@ -3195,7 +3195,7 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>0.665</v>
+        <v>0.709</v>
       </c>
       <c r="H60" t="n">
         <v>0.342</v>
@@ -3241,7 +3241,7 @@
         <v>0.612</v>
       </c>
       <c r="G61" t="n">
-        <v>0.587</v>
+        <v>0.675</v>
       </c>
       <c r="H61" t="n">
         <v>0.338</v>
@@ -3278,7 +3278,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.419</v>
+        <v>0.444</v>
       </c>
       <c r="E62" t="n">
         <v>0.509</v>
@@ -3287,7 +3287,7 @@
         <v>0.484</v>
       </c>
       <c r="G62" t="n">
-        <v>0.512</v>
+        <v>0.642</v>
       </c>
       <c r="H62" t="n">
         <v>0.364</v>
@@ -3336,7 +3336,7 @@
         <v>0.625</v>
       </c>
       <c r="H63" t="n">
-        <v>0.388</v>
+        <v>0.462</v>
       </c>
       <c r="I63" t="n">
         <v>0.5610000000000001</v>
@@ -3373,7 +3373,7 @@
         <v>0.465</v>
       </c>
       <c r="E64" t="n">
-        <v>0.602</v>
+        <v>0.551</v>
       </c>
       <c r="F64" t="n">
         <v>0.585</v>
@@ -3388,7 +3388,7 @@
         <v>0.508</v>
       </c>
       <c r="J64" t="n">
-        <v>0.251</v>
+        <v>0.275</v>
       </c>
       <c r="K64" t="n">
         <v>0.39</v>
@@ -3425,7 +3425,7 @@
         <v>0.592</v>
       </c>
       <c r="G65" t="n">
-        <v>0.624</v>
+        <v>0.74</v>
       </c>
       <c r="H65" t="n">
         <v>0.39</v>
@@ -3434,7 +3434,7 @@
         <v>0.5590000000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>0.344</v>
+        <v>0.379</v>
       </c>
       <c r="K65" t="n">
         <v>0.45</v>
@@ -3465,7 +3465,7 @@
         <v>0.458</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.546</v>
       </c>
       <c r="F66" t="n">
         <v>0.595</v>
@@ -3480,7 +3480,7 @@
         <v>0.546</v>
       </c>
       <c r="J66" t="n">
-        <v>0.305</v>
+        <v>0.315</v>
       </c>
       <c r="K66" t="n">
         <v>0.432</v>
@@ -3532,13 +3532,13 @@
         <v>0.455</v>
       </c>
       <c r="L67" t="n">
-        <v>0.441</v>
+        <v>0.392</v>
       </c>
       <c r="M67" t="n">
         <v>1.088888888888889</v>
       </c>
       <c r="N67" t="n">
-        <v>1.977777777777778</v>
+        <v>1.957737</v>
       </c>
     </row>
     <row r="68">
@@ -3563,7 +3563,7 @@
         <v>0.496</v>
       </c>
       <c r="G68" t="n">
-        <v>0.602</v>
+        <v>0.698</v>
       </c>
       <c r="H68" t="n">
         <v>0.362</v>
@@ -3600,7 +3600,7 @@
         <v>0.61</v>
       </c>
       <c r="D69" t="n">
-        <v>0.463</v>
+        <v>0.48</v>
       </c>
       <c r="E69" t="n">
         <v>0.553</v>
@@ -3618,7 +3618,7 @@
         <v>0.529</v>
       </c>
       <c r="J69" t="n">
-        <v>0.343</v>
+        <v>0.422</v>
       </c>
       <c r="K69" t="n">
         <v>0.485</v>
@@ -3646,7 +3646,7 @@
         <v>0.62</v>
       </c>
       <c r="D70" t="n">
-        <v>0.478</v>
+        <v>0.48</v>
       </c>
       <c r="E70" t="n">
         <v>0.5659999999999999</v>
@@ -3658,7 +3658,7 @@
         <v>0.639</v>
       </c>
       <c r="H70" t="n">
-        <v>0.369</v>
+        <v>0.414</v>
       </c>
       <c r="I70" t="n">
         <v>0.5570000000000001</v>
@@ -3695,7 +3695,7 @@
         <v>0.446</v>
       </c>
       <c r="E71" t="n">
-        <v>0.597</v>
+        <v>0.538</v>
       </c>
       <c r="F71" t="n">
         <v>0.601</v>
@@ -3738,7 +3738,7 @@
         <v>0.62</v>
       </c>
       <c r="D72" t="n">
-        <v>0.42</v>
+        <v>0.444</v>
       </c>
       <c r="E72" t="n">
         <v>0.548</v>
@@ -3747,7 +3747,7 @@
         <v>0.576</v>
       </c>
       <c r="G72" t="n">
-        <v>0.618</v>
+        <v>0.642</v>
       </c>
       <c r="H72" t="n">
         <v>0.388</v>
@@ -3781,13 +3781,13 @@
         <v>0.576</v>
       </c>
       <c r="C73" t="n">
-        <v>0.636</v>
+        <v>0.597</v>
       </c>
       <c r="D73" t="n">
         <v>0.436</v>
       </c>
       <c r="E73" t="n">
-        <v>0.552</v>
+        <v>0.536</v>
       </c>
       <c r="F73" t="n">
         <v>0.546</v>
@@ -3833,7 +3833,7 @@
         <v>0.398</v>
       </c>
       <c r="E74" t="n">
-        <v>0.538</v>
+        <v>0.526</v>
       </c>
       <c r="F74" t="n">
         <v>0.488</v>
@@ -3842,7 +3842,7 @@
         <v>0.552</v>
       </c>
       <c r="H74" t="n">
-        <v>0.408</v>
+        <v>0.438</v>
       </c>
       <c r="I74" t="n">
         <v>0.583</v>
@@ -3876,7 +3876,7 @@
         <v>0.623</v>
       </c>
       <c r="D75" t="n">
-        <v>0.468</v>
+        <v>0.485</v>
       </c>
       <c r="E75" t="n">
         <v>0.5669999999999999</v>
@@ -3885,7 +3885,7 @@
         <v>0.521</v>
       </c>
       <c r="G75" t="n">
-        <v>0.655</v>
+        <v>0.709</v>
       </c>
       <c r="H75" t="n">
         <v>0.348</v>
@@ -3934,10 +3934,10 @@
         <v>0.627</v>
       </c>
       <c r="H76" t="n">
-        <v>0.375</v>
+        <v>0.441</v>
       </c>
       <c r="I76" t="n">
-        <v>0.548</v>
+        <v>0.607</v>
       </c>
       <c r="J76" t="n">
         <v>0.367</v>
@@ -3965,13 +3965,13 @@
         <v>0.648</v>
       </c>
       <c r="C77" t="n">
-        <v>0.646</v>
+        <v>0.597</v>
       </c>
       <c r="D77" t="n">
         <v>0.46</v>
       </c>
       <c r="E77" t="n">
-        <v>0.581</v>
+        <v>0.536</v>
       </c>
       <c r="F77" t="n">
         <v>0.533</v>
@@ -4023,7 +4023,7 @@
         <v>0.554</v>
       </c>
       <c r="G78" t="n">
-        <v>0.642</v>
+        <v>0.675</v>
       </c>
       <c r="H78" t="n">
         <v>0.38</v>
@@ -4069,7 +4069,7 @@
         <v>0.522</v>
       </c>
       <c r="G79" t="n">
-        <v>0.604</v>
+        <v>0.66</v>
       </c>
       <c r="H79" t="n">
         <v>0.37</v>
@@ -4118,7 +4118,7 @@
         <v>0.658</v>
       </c>
       <c r="H80" t="n">
-        <v>0.343</v>
+        <v>0.444</v>
       </c>
       <c r="I80" t="n">
         <v>0.514</v>
@@ -4164,13 +4164,13 @@
         <v>0.52</v>
       </c>
       <c r="H81" t="n">
-        <v>0.361</v>
+        <v>0.43</v>
       </c>
       <c r="I81" t="n">
         <v>0.503</v>
       </c>
       <c r="J81" t="n">
-        <v>0.288</v>
+        <v>0.451</v>
       </c>
       <c r="K81" t="n">
         <v>0.4</v>
@@ -4207,13 +4207,13 @@
         <v>0.62</v>
       </c>
       <c r="G82" t="n">
-        <v>0.632</v>
+        <v>0.772</v>
       </c>
       <c r="H82" t="n">
         <v>0.34</v>
       </c>
       <c r="I82" t="n">
-        <v>0.546</v>
+        <v>0.528</v>
       </c>
       <c r="J82" t="n">
         <v>0.285</v>
@@ -4247,7 +4247,7 @@
         <v>0.456</v>
       </c>
       <c r="E83" t="n">
-        <v>0.59</v>
+        <v>0.527</v>
       </c>
       <c r="F83" t="n">
         <v>0.483</v>
@@ -4265,7 +4265,7 @@
         <v>0.319</v>
       </c>
       <c r="K83" t="n">
-        <v>0.395</v>
+        <v>0.375</v>
       </c>
       <c r="L83" t="n">
         <v>0.429</v>
@@ -4299,7 +4299,7 @@
         <v>0.508</v>
       </c>
       <c r="G84" t="n">
-        <v>0.601</v>
+        <v>0.785</v>
       </c>
       <c r="H84" t="n">
         <v>0.307</v>
@@ -4360,7 +4360,7 @@
         <v>0.463</v>
       </c>
       <c r="L85" t="n">
-        <v>0.463</v>
+        <v>0.406</v>
       </c>
       <c r="M85" t="n">
         <v>1.777777777777778</v>
@@ -4397,10 +4397,10 @@
         <v>0.314</v>
       </c>
       <c r="I86" t="n">
-        <v>0.502</v>
+        <v>0.541</v>
       </c>
       <c r="J86" t="n">
-        <v>0.243</v>
+        <v>0.343</v>
       </c>
       <c r="K86" t="n">
         <v>0.411</v>
@@ -4431,7 +4431,7 @@
         <v>0.455</v>
       </c>
       <c r="E87" t="n">
-        <v>0.575</v>
+        <v>0.538</v>
       </c>
       <c r="F87" t="n">
         <v>0.609</v>
@@ -4486,7 +4486,7 @@
         <v>0.632</v>
       </c>
       <c r="H88" t="n">
-        <v>0.341</v>
+        <v>0.47</v>
       </c>
       <c r="I88" t="n">
         <v>0.502</v>
@@ -4529,7 +4529,7 @@
         <v>0.516</v>
       </c>
       <c r="G89" t="n">
-        <v>0.634</v>
+        <v>0.71</v>
       </c>
       <c r="H89" t="n">
         <v>0.373</v>
@@ -4575,7 +4575,7 @@
         <v>0.476</v>
       </c>
       <c r="G90" t="n">
-        <v>0.599</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0.382</v>
@@ -4621,7 +4621,7 @@
         <v>0.54</v>
       </c>
       <c r="G91" t="n">
-        <v>0.626</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0.342</v>
@@ -4664,7 +4664,7 @@
         <v>0.634</v>
       </c>
       <c r="F92" t="n">
-        <v>0.473</v>
+        <v>0.518</v>
       </c>
       <c r="G92" t="n">
         <v>0.782</v>
@@ -4676,13 +4676,13 @@
         <v>0.502</v>
       </c>
       <c r="J92" t="n">
-        <v>0.256</v>
+        <v>0.331</v>
       </c>
       <c r="K92" t="n">
         <v>0.449</v>
       </c>
       <c r="L92" t="n">
-        <v>0.407</v>
+        <v>0.385</v>
       </c>
       <c r="M92" t="n">
         <v>6.5</v>
@@ -4704,7 +4704,7 @@
         <v>0.644</v>
       </c>
       <c r="D93" t="n">
-        <v>0.365</v>
+        <v>0.491</v>
       </c>
       <c r="E93" t="n">
         <v>0.54</v>
@@ -4713,7 +4713,7 @@
         <v>0.524</v>
       </c>
       <c r="G93" t="n">
-        <v>0.587</v>
+        <v>0.719</v>
       </c>
       <c r="H93" t="n">
         <v>0.392</v>
@@ -4774,7 +4774,7 @@
         <v>0.483</v>
       </c>
       <c r="L94" t="n">
-        <v>0.486</v>
+        <v>0.395</v>
       </c>
       <c r="M94" t="n">
         <v>2.074074074074074</v>
@@ -4796,7 +4796,7 @@
         <v>0.578</v>
       </c>
       <c r="D95" t="n">
-        <v>0.483</v>
+        <v>0.527</v>
       </c>
       <c r="E95" t="n">
         <v>0.547</v>
@@ -4805,7 +4805,7 @@
         <v>0.535</v>
       </c>
       <c r="G95" t="n">
-        <v>0.622</v>
+        <v>0.778</v>
       </c>
       <c r="H95" t="n">
         <v>0.342</v>
@@ -4845,7 +4845,7 @@
         <v>0.477</v>
       </c>
       <c r="E96" t="n">
-        <v>0.577</v>
+        <v>0.626</v>
       </c>
       <c r="F96" t="n">
         <v>0.594</v>
@@ -4860,7 +4860,7 @@
         <v>0.532</v>
       </c>
       <c r="J96" t="n">
-        <v>0.301</v>
+        <v>0.489</v>
       </c>
       <c r="K96" t="n">
         <v>0.46</v>
@@ -4885,7 +4885,7 @@
         <v>0.579</v>
       </c>
       <c r="C97" t="n">
-        <v>0.645</v>
+        <v>0.672</v>
       </c>
       <c r="D97" t="n">
         <v>0.375</v>
@@ -4897,7 +4897,7 @@
         <v>0.581</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.698</v>
       </c>
       <c r="H97" t="n">
         <v>0.315</v>
@@ -4943,7 +4943,7 @@
         <v>0.516</v>
       </c>
       <c r="G98" t="n">
-        <v>0.608</v>
+        <v>0.697</v>
       </c>
       <c r="H98" t="n">
         <v>0.362</v>
@@ -4983,7 +4983,7 @@
         <v>0.451</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.516</v>
       </c>
       <c r="F99" t="n">
         <v>0.528</v>
@@ -5004,7 +5004,7 @@
         <v>0.422</v>
       </c>
       <c r="L99" t="n">
-        <v>0.414</v>
+        <v>0.395</v>
       </c>
       <c r="M99" t="n">
         <v>2.441176470588236</v>
@@ -5035,7 +5035,7 @@
         <v>0.438</v>
       </c>
       <c r="G100" t="n">
-        <v>0.61</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0.359</v>
@@ -5066,13 +5066,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.634</v>
+        <v>0.571</v>
       </c>
       <c r="C101" t="n">
         <v>0.737</v>
       </c>
       <c r="D101" t="n">
-        <v>0.456</v>
+        <v>0.428</v>
       </c>
       <c r="E101" t="n">
         <v>0.617</v>
@@ -5084,7 +5084,7 @@
         <v>0.773</v>
       </c>
       <c r="H101" t="n">
-        <v>0.314</v>
+        <v>0.366</v>
       </c>
       <c r="I101" t="n">
         <v>0.521</v>
